--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_yuki_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_yuki_1_1.xlsx
@@ -1544,7 +1544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Closure"]  But whatever, Kal'tsit wanted me to tell you this instead. “You may use your methods to observe Rhodes Island, but Rhodes Island is observing you too.”
+    <t xml:space="preserve">[name="Closure"]  But whatever, Kal'tsit wanted me to tell you this instead. 'You may use your methods to observe Rhodes Island, but Rhodes Island is observing you too.'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_yuki_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_yuki_1_1.xlsx
@@ -1072,7 +1072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Here.
+    <t xml:space="preserve">[name="Shirayuki"]  Here.
 </t>
   </si>
   <si>
@@ -1080,7 +1080,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Rhodes Island?
+    <t xml:space="preserve">[name="Shirayuki"]  Rhodes Island?
 </t>
   </si>
   <si>
@@ -1088,11 +1088,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Only that the Miss has deep ties with them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Does the Princess want me to protect the Miss?
+    <t xml:space="preserve">[name="Shirayuki"]  Only that the Miss has deep ties with them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Does the Princess want me to protect the Miss?
 </t>
   </si>
   <si>
@@ -1100,7 +1100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Infected... does the Princess consider them reliable?
+    <t xml:space="preserve">[name="Shirayuki"]  Infected... does the Princess consider them reliable?
 </t>
   </si>
   <si>
@@ -1112,7 +1112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Opportunity?
+    <t xml:space="preserve">[name="Shirayuki"]  Opportunity?
 </t>
   </si>
   <si>
@@ -1120,7 +1120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  It is my mission.
+    <t xml:space="preserve">[name="Shirayuki"]  It is my mission.
 </t>
   </si>
   <si>
@@ -1128,7 +1128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  I need only to know what sights the Princess sees.
+    <t xml:space="preserve">[name="Shirayuki"]  I need only to know what sights the Princess sees.
 </t>
   </si>
   <si>
@@ -1136,11 +1136,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  ...Understood.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  I am Shirayuki. Princess Fumizuki told me to assist Madam Ch'en and follow all your orders.
+    <t xml:space="preserve">[name="Shirayuki"]  ...Understood.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  I am Shirayuki. Princess Fumizuki told me to assist Madam Ch'en and follow all your orders.
 </t>
   </si>
   <si>
@@ -1148,71 +1148,71 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  ......
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Several days' observation. The Doctor, a strange sort.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Directly heats instant food in mouth with kettle. Genius.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  But holds true requisite ability, in command of people and handling of sundry affairs.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Further, Rhodes Island. More than meets the eye.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Surface-level, a pharmaceutical company. In reality, close to a military organization. With fair strength. No surprise Lord Wei would cooperate with this company.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  The Princess spoke it not forth, but as Miss Ch'en is here, I am presumably willed to investigate this organization, and protect the Miss in full.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Doctor aside, two others are leaders here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Amiya, I have met. In the Princess's words, a very kindly person.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  But as she has proven a leader, exceptionality must reside. Cannot be taken lightly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  The other, a Kal'tsit, not yet met. From others' conversation, the true core figure of this company. Further understanding of her required.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Rough structure of accessible ship interior area committed to memory. Time, one in the morning. I shall move out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Entered.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Rhodes Island's pipeline design, adequate.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Ordered systematically, omnidirectional... and correspondingly monitored.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  But such levels, a mere trifle.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Most passages are connected with dormitories via toilets. Only some windows give sight of what happens within dormitories, due to planning... Fair.
+    <t xml:space="preserve">[name="Shirayuki"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Several days' observation. The Doctor, a strange sort.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Directly heats instant food in mouth with kettle. Genius.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  But holds true requisite ability, in command of people and handling of sundry affairs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Further, Rhodes Island. More than meets the eye.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Surface-level, a pharmaceutical company. In reality, close to a military organization. With fair strength. No surprise Lord Wei would cooperate with this company.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  The Princess spoke it not forth, but as Miss Ch'en is here, I am presumably willed to investigate this organization, and protect the Miss in full.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Doctor aside, two others are leaders here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Amiya, I have met. In the Princess's words, a very kindly person.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  But as she has proven a leader, exceptionality must reside. Cannot be taken lightly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  The other, a Kal'tsit, not yet met. From others' conversation, the true core figure of this company. Further understanding of her required.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Rough structure of accessible ship interior area committed to memory. Time, one in the morning. I shall move out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Entered.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Rhodes Island's pipeline design, adequate.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Ordered systematically, omnidirectional... and correspondingly monitored.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  But such levels, a mere trifle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Most passages are connected with dormitories via toilets. Only some windows give sight of what happens within dormitories, due to planning... Fair.
 </t>
   </si>
   <si>
@@ -1220,11 +1220,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Ceobe.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Abysmal sleeping posture.
+    <t xml:space="preserve">[name="Shirayuki"]  Ceobe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Abysmal sleeping posture.
 </t>
   </si>
   <si>
@@ -1248,19 +1248,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  (Shudder)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Operator codename, Midnight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Narcissist.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Yet, ample muscle definition.
+    <t xml:space="preserve">[name="Shirayuki"]  (Shudder)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Operator codename, Midnight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Narcissist.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Yet, ample muscle definition.
 </t>
   </si>
   <si>
@@ -1280,27 +1280,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Instructor Dobermann.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Steel-cold, heart of gold.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Most have already fallen asleep.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Rhodes Island's people by and large, seem used to life here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Just as the Princess's words, a good place.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Ahead leaves the dormitory area. Tread carefully.
+    <t xml:space="preserve">[name="Shirayuki"]  Instructor Dobermann.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Steel-cold, heart of gold.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Most have already fallen asleep.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Rhodes Island's people by and large, seem used to life here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Just as the Princess's words, a good place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Ahead leaves the dormitory area. Tread carefully.
 </t>
   </si>
   <si>
@@ -1328,19 +1328,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Two students from Ursus. Seemingly, refugees admitted prior.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Chernobog. A tragedy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  I wish you good luck.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Hm? That...
+    <t xml:space="preserve">[name="Shirayuki"]  Two students from Ursus. Seemingly, refugees admitted prior.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Chernobog. A tragedy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  I wish you good luck.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Hm? That...
 </t>
   </si>
   <si>
@@ -1376,7 +1376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  So this should be Dr. Kal'tsit...
+    <t xml:space="preserve">[name="Shirayuki"]  So this should be Dr. Kal'tsit...
 </t>
   </si>
   <si>
@@ -1384,19 +1384,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Her gaze, as though it flickered hither! Have I been found?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  (Seemingly, she has not noticed me. Yet that sensation, it was...)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Forget it. As I am not found, I shall proceed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  (Hm? Ahead, an impression of great noise... surmising from direction, likely the Engineering Department.)
+    <t xml:space="preserve">[name="Shirayuki"]  Her gaze, as though it flickered hither! Have I been found?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  (Seemingly, she has not noticed me. Yet that sensation, it was...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Forget it. As I am not found, I shall proceed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  (Hm? Ahead, an impression of great noise... surmising from direction, likely the Engineering Department.)
 </t>
   </si>
   <si>
@@ -1424,15 +1424,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Chief Engineer Closure.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  'Tis alleged that the Rhodes Island ship was her plan alone. Fearsome.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Yet this is not where the show's true ruin lies. The fourth season's spontaneous introduction of the supporting man; such was a nightmare.
+    <t xml:space="preserve">[name="Shirayuki"]  Chief Engineer Closure.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  'Tis alleged that the Rhodes Island ship was her plan alone. Fearsome.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Yet this is not where the show's true ruin lies. The fourth season's spontaneous introduction of the supporting man; such was a nightmare.
 </t>
   </si>
   <si>
@@ -1440,7 +1440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  ...You catch upon my words?!
+    <t xml:space="preserve">[name="Shirayuki"]  ...You catch upon my words?!
 </t>
   </si>
   <si>
@@ -1452,7 +1452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  ...Since when?
+    <t xml:space="preserve">[name="Shirayuki"]  ...Since when?
 </t>
   </si>
   <si>
@@ -1464,7 +1464,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  ...'Twas my individual action, untied to anyone.
+    <t xml:space="preserve">[name="Shirayuki"]  ...'Twas my individual action, untied to anyone.
 </t>
   </si>
   <si>
@@ -1476,7 +1476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  ......?
+    <t xml:space="preserve">[name="Shirayuki"]  ......?
 </t>
   </si>
   <si>
@@ -1488,7 +1488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  ...This has naught to do with the Princess.
+    <t xml:space="preserve">[name="Shirayuki"]  ...This has naught to do with the Princess.
 </t>
   </si>
   <si>
@@ -1524,11 +1524,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  I do not.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  I will not repeat this.
+    <t xml:space="preserve">[name="Shirayuki"]  I do not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  I will not repeat this.
 </t>
   </si>
   <si>
@@ -1536,7 +1536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  ...I make no guarantee.
+    <t xml:space="preserve">[name="Shirayuki"]  ...I make no guarantee.
 </t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  ...I understand.
+    <t xml:space="preserve">[name="Shirayuki"]  ...I understand.
 </t>
   </si>
   <si>
@@ -1560,11 +1560,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  In continuing to watch this, you will truly find no value.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  I may recommend some. I know not if you possess them.
+    <t xml:space="preserve">[name="Shirayuki"]  In continuing to watch this, you will truly find no value.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  I may recommend some. I know not if you possess them.
 </t>
   </si>
   <si>
@@ -1576,7 +1576,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  ...Very well.
+    <t xml:space="preserve">[name="Shirayuki"]  ...Very well.
 </t>
   </si>
   <si>
